--- a/INST.SANITARIAS-ANA PAOLA/APARATOS Y ACCESORIOS SANITARIOS/METRADO SANITARIAS-APARATOS Y ACCESORIOS SANITARIOS.xlsx
+++ b/INST.SANITARIAS-ANA PAOLA/APARATOS Y ACCESORIOS SANITARIOS/METRADO SANITARIAS-APARATOS Y ACCESORIOS SANITARIOS.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anato\OneDrive\Escritorio\ANA PAOLA - SANTA ROSA\INST.SANITARIAS-ANA PAOLA\APARATOS Y ACCESORIOS SANITARIOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\AMPLIACION-07-SR\INST.SANITARIAS-ANA PAOLA\APARATOS Y ACCESORIOS SANITARIOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50545289-336A-4A61-A69B-F9819A0CA0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EE6EFA-437B-40DE-86A4-8D6632DD01EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{38F00EAC-253E-4108-B8E6-24C8B288EAF4}"/>
+    <workbookView minimized="1" xWindow="10584" yWindow="0" windowWidth="12024" windowHeight="12240" activeTab="1" xr2:uid="{38F00EAC-253E-4108-B8E6-24C8B288EAF4}"/>
   </bookViews>
   <sheets>
     <sheet name="INICIAL" sheetId="1" r:id="rId1"/>
     <sheet name="ACTUAL" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ACTUAL!$A$1:$AH$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">INICIAL!$A$1:$AH$38</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ACTUAL!$A:$B</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">INICIAL!$A:$B</definedName>
@@ -30,9 +29,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1277,6 +1277,12 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1286,23 +1292,17 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="3" fillId="4" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="4" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1643,8 +1643,8 @@
   </sheetPr>
   <dimension ref="A1:AH54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScale="70" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1697,57 +1697,57 @@
       <c r="AH1" s="13"/>
     </row>
     <row r="2" spans="1:34" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="81" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="84"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="82"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="81" t="s">
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="84"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="82"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="81" t="s">
+      <c r="V2" s="84"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="83"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="85"/>
       <c r="AA2" s="64" t="s">
         <v>17</v>
       </c>
       <c r="AB2" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="AC2" s="84" t="s">
+      <c r="AC2" s="88" t="s">
         <v>89</v>
       </c>
       <c r="AD2" s="66" t="s">
@@ -1767,8 +1767,8 @@
       </c>
     </row>
     <row r="3" spans="1:34" ht="74.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="87"/>
-      <c r="B3" s="89"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="87"/>
       <c r="C3" s="60" t="s">
         <v>11</v>
       </c>
@@ -1847,7 +1847,7 @@
       <c r="AB3" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="AC3" s="85"/>
+      <c r="AC3" s="89"/>
       <c r="AD3" s="14"/>
       <c r="AE3" s="14"/>
       <c r="AF3" s="14"/>
@@ -4549,16 +4549,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="34" fitToWidth="0" orientation="landscape" r:id="rId1"/>
@@ -4572,8 +4572,8 @@
   </sheetPr>
   <dimension ref="A1:AH56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="70" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4626,57 +4626,57 @@
       <c r="AH1" s="13"/>
     </row>
     <row r="2" spans="1:34" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="81" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="84"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="82"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="81" t="s">
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="84"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="82"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="81" t="s">
+      <c r="V2" s="84"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="83"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="85"/>
       <c r="AA2" s="64" t="s">
         <v>17</v>
       </c>
       <c r="AB2" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="AC2" s="84" t="s">
+      <c r="AC2" s="88" t="s">
         <v>89</v>
       </c>
       <c r="AD2" s="66" t="s">
@@ -4696,8 +4696,8 @@
       </c>
     </row>
     <row r="3" spans="1:34" ht="74.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="87"/>
-      <c r="B3" s="89"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="87"/>
       <c r="C3" s="60" t="s">
         <v>11</v>
       </c>
@@ -4776,7 +4776,7 @@
       <c r="AB3" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="AC3" s="85"/>
+      <c r="AC3" s="89"/>
       <c r="AD3" s="14"/>
       <c r="AE3" s="14"/>
       <c r="AF3" s="14"/>
@@ -7520,12 +7520,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K41:K46"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="E41:E46"/>
-    <mergeCell ref="F41:F46"/>
-    <mergeCell ref="J41:J46"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="X2:Z2"/>
@@ -7536,8 +7530,14 @@
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="K41:K46"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="F41:F46"/>
+    <mergeCell ref="J41:J46"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="26" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="24" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/INST.SANITARIAS-ANA PAOLA/APARATOS Y ACCESORIOS SANITARIOS/METRADO SANITARIAS-APARATOS Y ACCESORIOS SANITARIOS.xlsx
+++ b/INST.SANITARIAS-ANA PAOLA/APARATOS Y ACCESORIOS SANITARIOS/METRADO SANITARIAS-APARATOS Y ACCESORIOS SANITARIOS.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\AMPLIACION-07-SR\INST.SANITARIAS-ANA PAOLA\APARATOS Y ACCESORIOS SANITARIOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EE6EFA-437B-40DE-86A4-8D6632DD01EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C6D190-B001-43CF-BB45-34A36E4689ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10584" yWindow="0" windowWidth="12024" windowHeight="12240" activeTab="1" xr2:uid="{38F00EAC-253E-4108-B8E6-24C8B288EAF4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{38F00EAC-253E-4108-B8E6-24C8B288EAF4}"/>
   </bookViews>
   <sheets>
     <sheet name="INICIAL" sheetId="1" r:id="rId1"/>
     <sheet name="ACTUAL" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ACTUAL!$A$1:$AH$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">INICIAL!$A$1:$AH$38</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ACTUAL!$A:$B</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">INICIAL!$A:$B</definedName>
@@ -1277,32 +1278,32 @@
     <xf numFmtId="4" fontId="5" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1697,57 +1698,57 @@
       <c r="AH1" s="13"/>
     </row>
     <row r="2" spans="1:34" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="83" t="s">
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="82"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="84"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="83" t="s">
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="82"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="84"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="83" t="s">
+      <c r="V2" s="82"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="85"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="83"/>
       <c r="AA2" s="64" t="s">
         <v>17</v>
       </c>
       <c r="AB2" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="AC2" s="88" t="s">
+      <c r="AC2" s="84" t="s">
         <v>89</v>
       </c>
       <c r="AD2" s="66" t="s">
@@ -1767,8 +1768,8 @@
       </c>
     </row>
     <row r="3" spans="1:34" ht="74.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="82"/>
-      <c r="B3" s="87"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="89"/>
       <c r="C3" s="60" t="s">
         <v>11</v>
       </c>
@@ -1847,7 +1848,7 @@
       <c r="AB3" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="AC3" s="89"/>
+      <c r="AC3" s="85"/>
       <c r="AD3" s="14"/>
       <c r="AE3" s="14"/>
       <c r="AF3" s="14"/>
@@ -4549,16 +4550,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="34" fitToWidth="0" orientation="landscape" r:id="rId1"/>
@@ -4572,7 +4573,7 @@
   </sheetPr>
   <dimension ref="A1:AH56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="70" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A26" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
@@ -4626,57 +4627,57 @@
       <c r="AH1" s="13"/>
     </row>
     <row r="2" spans="1:34" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="83" t="s">
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="82"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="84"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="83" t="s">
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="82"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="84"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="83" t="s">
+      <c r="V2" s="82"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="85"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="83"/>
       <c r="AA2" s="64" t="s">
         <v>17</v>
       </c>
       <c r="AB2" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="AC2" s="88" t="s">
+      <c r="AC2" s="84" t="s">
         <v>89</v>
       </c>
       <c r="AD2" s="66" t="s">
@@ -4696,8 +4697,8 @@
       </c>
     </row>
     <row r="3" spans="1:34" ht="74.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="82"/>
-      <c r="B3" s="87"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="89"/>
       <c r="C3" s="60" t="s">
         <v>11</v>
       </c>
@@ -4776,7 +4777,7 @@
       <c r="AB3" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="AC3" s="89"/>
+      <c r="AC3" s="85"/>
       <c r="AD3" s="14"/>
       <c r="AE3" s="14"/>
       <c r="AF3" s="14"/>
@@ -7520,6 +7521,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K41:K46"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="F41:F46"/>
+    <mergeCell ref="J41:J46"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="X2:Z2"/>
@@ -7530,14 +7537,9 @@
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="K41:K46"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="E41:E46"/>
-    <mergeCell ref="F41:F46"/>
-    <mergeCell ref="J41:J46"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="24" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="47" fitToWidth="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>